--- a/biology/Zoologie/Galerucini/Galerucini.xlsx
+++ b/biology/Zoologie/Galerucini/Galerucini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Galerucini sont une tribu de coléoptères chrysomélidés, de la sous-famille des galérucinés (galéruques).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Fauna Europaea                                      (11 juillet 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fauna Europaea                                      (11 juillet 2013) :
 Arima
 Diorhabda
 Galeruca
@@ -524,7 +538,7 @@
 Xanthogaleruca
 Selon Wikispecies (consulté le 7 janvier 2019) :
 Acalymma - Adoxia - Afrocandezea - Afropachylepta - Agelastica - Agetocera - Allastena - Aplosonyx - Apophylia - Arcastes - Arima - Arthrotus - Aulacophora - Belarima - Bryantiella - Bryobates - Calomicrus - Cerophysa - Cneorane - Coronabrotica - Diorhabda - Diabrotica - Euliroetis - Euluperus - Exosoma - Falsoexosoma - Fleutiauxia - Galeruca - Galerucella - Gallerucida - Galerupipla - Haplosomoides - Hoplasoma - Hoplosaenidea - Hyphaenia - Leptomona - Lochmaea - Luperus - Madurasia - Malacotheria - Marseulia - Menippus - Metrioidea - Mimastra - Monolepta - Monoleptoides - Monoxia - Munina - Neolepta - Nymphius - Oides - Ootheca - Orthoneolepta - Paraneolepta - Paridea - Phyllobrotica - Pleronexis - Pyrrhalta - Rubrarcastes - Sermylassa - Stenoluperus - Taumacera - Taumaceroides - Theone - Theopea - Xanthogaleruca - Yunnaniata - Zischkaita
-Selon ITIS      (29 août 2014)[2] :
+Selon ITIS      (29 août 2014) :
 Brucita Wilcox, 1965
 Coraia H. Clark, 1865
 Derospidea Blake, 1931
